--- a/verbanden en formules/AAAverbanden en formules.xlsx
+++ b/verbanden en formules/AAAverbanden en formules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/verbanden en formules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407BC727-71A6-4407-B31D-A51F401B055E}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4199B574-9561-4D27-A691-6049DC3DB315}"/>
   <bookViews>
-    <workbookView xWindow="44235" yWindow="2865" windowWidth="24300" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53790" yWindow="11295" windowWidth="13245" windowHeight="8655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Roosterpapier</t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>Punt, coördinaten, gehele getallen</t>
+  </si>
+  <si>
+    <t>formules, functies, data, assenstelsel</t>
+  </si>
+  <si>
+    <t>Tabel</t>
+  </si>
+  <si>
+    <t>Scheurlijn</t>
+  </si>
+  <si>
+    <t>Vloeiendekromme</t>
+  </si>
+  <si>
+    <t>Zaagtand</t>
+  </si>
+  <si>
+    <t>Kreukellijn</t>
   </si>
 </sst>
 </file>
@@ -126,10 +144,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -412,18 +439,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" style="5" customWidth="1"/>
     <col min="2" max="2" width="75.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -431,7 +458,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -439,7 +466,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -447,7 +474,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -455,7 +482,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -463,7 +490,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -471,13 +498,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -485,7 +512,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -493,7 +520,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -501,7 +528,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -509,7 +536,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -517,157 +544,169 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="2"/>
     </row>
   </sheetData>

--- a/verbanden en formules/AAAverbanden en formules.xlsx
+++ b/verbanden en formules/AAAverbanden en formules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/verbanden en formules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4199B574-9561-4D27-A691-6049DC3DB315}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E29B53E6-DC58-4588-861B-1E18678671B5}"/>
   <bookViews>
-    <workbookView xWindow="53790" yWindow="11295" windowWidth="13245" windowHeight="8655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="3015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,6 @@
     <t>Oorsprong</t>
   </si>
   <si>
-    <t>y-as</t>
-  </si>
-  <si>
-    <t>x-as</t>
-  </si>
-  <si>
     <t>Assenstelsel</t>
   </si>
   <si>
@@ -48,12 +42,6 @@
     <t>Coördinaten</t>
   </si>
   <si>
-    <t>x-coördinaat</t>
-  </si>
-  <si>
-    <t>y-coördinaat</t>
-  </si>
-  <si>
     <t>Roosterpunt</t>
   </si>
   <si>
@@ -103,6 +91,18 @@
   </si>
   <si>
     <t>Kreukellijn</t>
+  </si>
+  <si>
+    <t>X-as</t>
+  </si>
+  <si>
+    <t>X-coördinaat</t>
+  </si>
+  <si>
+    <t>Y-as</t>
+  </si>
+  <si>
+    <t>Y-coördinaat</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,133 +451,133 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2"/>
     </row>
@@ -711,7 +711,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B50">
-    <sortCondition ref="A1:A50"/>
+    <sortCondition ref="A7:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verbanden en formules/AAAverbanden en formules.xlsx
+++ b/verbanden en formules/AAAverbanden en formules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/verbanden en formules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E29B53E6-DC58-4588-861B-1E18678671B5}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17196AAC-8B71-4565-A652-995CF7033C47}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="3015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40080" yWindow="6645" windowWidth="32400" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Roosterpapier</t>
   </si>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>Y-coördinaat</t>
+  </si>
+  <si>
+    <t>Verticale as, Grafiek, Assenstelsel</t>
+  </si>
+  <si>
+    <t>Globalegrafiek</t>
+  </si>
+  <si>
+    <t>Stijgen</t>
+  </si>
+  <si>
+    <t>Dalen</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Woordformule</t>
+  </si>
+  <si>
+    <t>Formule, Grafiek, Horizontale as, Verticale as</t>
   </si>
 </sst>
 </file>
@@ -440,7 +461,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,148 +479,166 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -710,8 +749,8 @@
       <c r="B50" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B50">
-    <sortCondition ref="A7:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verbanden en formules/AAAverbanden en formules.xlsx
+++ b/verbanden en formules/AAAverbanden en formules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/verbanden en formules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17196AAC-8B71-4565-A652-995CF7033C47}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B91AEDED-D1E1-4973-9926-98BDD0F61BF2}"/>
   <bookViews>
-    <workbookView xWindow="40080" yWindow="6645" windowWidth="32400" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75390" yWindow="3555" windowWidth="21600" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Roosterpapier</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>Formule, Grafiek, Horizontale as, Verticale as</t>
+  </si>
+  <si>
+    <t>Grafiek, horizontaal, formule</t>
+  </si>
+  <si>
+    <t>Formule</t>
+  </si>
+  <si>
+    <t>Verband, variabelen, tabel verticale as, horizontale as</t>
+  </si>
+  <si>
+    <t>Grafiek, assen</t>
+  </si>
+  <si>
+    <t>Grafiek, punten, liniaal, geodriehoek</t>
   </si>
 </sst>
 </file>
@@ -460,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,10 +494,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -493,156 +510,170 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
@@ -749,8 +780,8 @@
       <c r="B50" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B51">
-    <sortCondition ref="A1:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B50">
+    <sortCondition ref="A19:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verbanden en formules/AAAverbanden en formules.xlsx
+++ b/verbanden en formules/AAAverbanden en formules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/verbanden en formules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B91AEDED-D1E1-4973-9926-98BDD0F61BF2}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44373A40-73F1-42F1-BE47-050547D0C482}"/>
   <bookViews>
-    <workbookView xWindow="75390" yWindow="3555" windowWidth="21600" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Roosterpapier</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Grafiek, punten, liniaal, geodriehoek</t>
+  </si>
+  <si>
+    <t>(Recht)evenredig</t>
+  </si>
+  <si>
+    <t>Omgekeerd evenredig</t>
   </si>
 </sst>
 </file>
@@ -180,14 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -473,311 +475,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="75.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="75.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="4"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="4"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2"/>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B50">
